--- a/class_diagram/after/controller/view/interviewer/面談予約システム_クラス図 (controller.view.interviewer).xlsx
+++ b/class_diagram/after/controller/view/interviewer/面談予約システム_クラス図 (controller.view.interviewer).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\view\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A936C8D-5CC2-44A1-88AA-6A8D9F05F0CF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{43CB401D-6EF9-4FEA-8299-28902680637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73084354-D387-4620-9BF4-AD1C4E7008BD}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginViewController" sheetId="2" r:id="rId1"/>
@@ -265,7 +265,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4D92E95-7BFF-4618-905C-66A8163019B6}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0CBEDA2D-1B49-4C2B-BFCE-8193F2A5E22C}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{722CBA23-2E79-49E0-B4C2-E0646864CB18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -439,7 +439,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>loginView (session : HttpSession, model : Model, form : LoginForm)</a:t>
+            <a:t>formView (session : HttpSession, model : Model)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2758,7 +2758,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="AC24" sqref="AC24"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
